--- a/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8736BD9-D365-4CEF-B9ED-0B4BCCD9132C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DAE68-E0AF-4650-8757-4C8637C8313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,9 +329,6 @@
     <t>Junte-se a nós! #1</t>
   </si>
   <si>
-    <t>Por favor, vá embora.</t>
-  </si>
-  <si>
     <t>Eu chamarei #1 agora.</t>
   </si>
   <si>
@@ -344,9 +341,6 @@
     <t>Me leve em segurança até meu destino.</t>
   </si>
   <si>
-    <t>Me dê #1, ou sua vida estará perdida!</t>
-  </si>
-  <si>
     <t>Eu me rendo. (Perde: #2)</t>
   </si>
   <si>
@@ -375,6 +369,12 @@
   </si>
   <si>
     <t>É uma decisão bastante sábia.</t>
+  </si>
+  <si>
+    <t>Mudei de ideia.</t>
+  </si>
+  <si>
+    <t>Se valoriza sua vida, entregue #1 sem resistência!</t>
   </si>
 </sst>
 </file>
@@ -638,9 +638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K123" sqref="K123"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -939,7 +939,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -1039,7 +1039,7 @@
         <v>49</v>
       </c>
       <c r="K61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1071,7 +1071,7 @@
         <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1095,7 +1095,7 @@
         <v>57</v>
       </c>
       <c r="K70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1119,7 +1119,7 @@
         <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -1157,7 +1157,7 @@
         <v>65</v>
       </c>
       <c r="K80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -1186,7 +1186,7 @@
         <v>68</v>
       </c>
       <c r="K85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -1215,7 +1215,7 @@
         <v>71</v>
       </c>
       <c r="K91" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -1239,7 +1239,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -1263,7 +1263,7 @@
         <v>77</v>
       </c>
       <c r="K100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -1287,7 +1287,7 @@
         <v>80</v>
       </c>
       <c r="K104" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -1311,7 +1311,7 @@
         <v>83</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -1335,7 +1335,7 @@
         <v>86</v>
       </c>
       <c r="K111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -1355,7 +1355,7 @@
         <v>89</v>
       </c>
       <c r="K112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -1401,7 +1401,7 @@
         <v>92</v>
       </c>
       <c r="K123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="124" spans="1:11">

--- a/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274DAE68-E0AF-4650-8757-4C8637C8313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A22C99-9590-44A6-AD5A-F39766DB29F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10005" yWindow="1920" windowWidth="21450" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chara" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
   <si>
     <t>step</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Se valoriza sua vida, entregue #1 sem resistência!</t>
+  </si>
+  <si>
+    <t>give_card</t>
+  </si>
+  <si>
+    <t>これを受け取って{くれ}。</t>
+  </si>
+  <si>
+    <t>I want you to have this.</t>
+  </si>
+  <si>
+    <t>Quero que você fique com isso.</t>
   </si>
 </sst>
 </file>
@@ -636,11 +648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -694,7 +706,7 @@
     <row r="2" spans="1:12">
       <c r="H2">
         <f>MAX(H4:H1048576)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1414,6 +1426,30 @@
         <v>25</v>
       </c>
     </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="H129">
+        <v>20</v>
+      </c>
+      <c r="I129" t="s">
+        <v>114</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K129" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/_chara.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A22C99-9590-44A6-AD5A-F39766DB29F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CD42AC-F254-4173-9069-6FB4DA11F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="1920" windowWidth="21450" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chara" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>step</t>
   </si>
@@ -387,6 +387,18 @@
   </si>
   <si>
     <t>Quero que você fique com isso.</t>
+  </si>
+  <si>
+    <t>give_lunch</t>
+  </si>
+  <si>
+    <t>こんなものを作ってみたの{だが}、良かったら食べて{くれ}。</t>
+  </si>
+  <si>
+    <t>I made this... care to try?</t>
+  </si>
+  <si>
+    <t>Fiz isso... quer experimentar?</t>
   </si>
 </sst>
 </file>
@@ -648,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -706,7 +718,7 @@
     <row r="2" spans="1:12">
       <c r="H2">
         <f>MAX(H4:H1048576)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1431,7 +1443,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
+    <row r="129" spans="1:11">
       <c r="H129">
         <v>20</v>
       </c>
@@ -1445,8 +1457,32 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
+    <row r="130" spans="1:11">
       <c r="B130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="H133">
+        <v>21</v>
+      </c>
+      <c r="I133" t="s">
+        <v>118</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="B134" t="s">
         <v>25</v>
       </c>
     </row>
